--- a/user_70112095_sleep_statistics.xlsx
+++ b/user_70112095_sleep_statistics.xlsx
@@ -463,19 +463,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11.04.2025 15:00</t>
+          <t>11.04.2025 15:22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11.04.2025 15:00</t>
+          <t>11.04.2025 15:24</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>0.02</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Qwert</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Asdf</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
